--- a/data_dammy.xlsx
+++ b/data_dammy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kzito\Desktop\well-being\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C6E9BF-E87C-4780-8BFC-AFA7F4392B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6814C8-C0F7-4650-9FF3-9838185A4108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="5190" windowWidth="27345" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="315" yWindow="5190" windowWidth="11025" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>日記テキスト</t>
     <rPh sb="0" eb="2">
@@ -324,6 +324,10 @@
     <rPh sb="49" eb="50">
       <t>ハナシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -653,7 +657,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -663,6 +667,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>

--- a/data_dammy.xlsx
+++ b/data_dammy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kzito\Desktop\well-being\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6814C8-C0F7-4650-9FF3-9838185A4108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFC4BBC-B03C-4F13-8982-D4F24CDD9EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="315" yWindow="5190" windowWidth="11025" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -656,9 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
